--- a/media/uploads/Jononi Script Register (3).xlsx
+++ b/media/uploads/Jononi Script Register (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BCA42-6456-44E9-A4DD-931232CC94F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E624B-CF1B-4C77-A688-71679F1AD687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facility MIS" sheetId="2" r:id="rId1"/>
@@ -2248,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE931D1C-8A0A-4CF1-97E8-6D18B2A66446}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
